--- a/biology/Botanique/Campanule_en_thyrse/Campanule_en_thyrse.xlsx
+++ b/biology/Botanique/Campanule_en_thyrse/Campanule_en_thyrse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Campanule en thyrse (Campanula thyrsoides) est une plante herbacée des Alpes, du Jura et des Balkans.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante a une hauteur de 10 à 70 cm aux fleurs jaune pâle en épi dense ou en thyrse. Sa forme et sa couleur inhabituelle chez les campanules ne laisse place à aucune confusion. La tige est simple, épaisse, creuse et dressée. Ses feuilles sont nombreuses, imbriquées, allongées, obtuses et velues.
 </t>
@@ -542,7 +556,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La floraison est bisannuelle, généralement de juillet à août, mais parfois dès juin.
 </t>
@@ -573,7 +589,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plants sont hermaphrodites. La pollinisation est entomogame ou autogame. La dissémination des graines est barochore.
 </t>
@@ -604,7 +622,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses alpines calcaires à l'étage alpin ou subalpin, généralement de 1500 à 2600 mètres d'altitude, mais parfois dès 1000 mètres. 
 </t>
@@ -635,7 +655,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve dans le massif du Jura et dans la chaîne des Alpes et dans les Balkans.
 </t>
@@ -666,7 +688,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, cette espèce est protégée en région Franche-Comté (Article 1).
 </t>
